--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -5,29 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mie008443/work/compass/funding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mie008443/work/compass/csv2turtle/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76946485-9DF9-3544-98D8-FC57D06BD80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BF57B-CA88-9B49-A0C2-6B67A4496C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="2" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="4" r:id="rId1"/>
     <sheet name="Taxonomies" sheetId="9" r:id="rId2"/>
-    <sheet name="Needs" sheetId="12" r:id="rId3"/>
-    <sheet name="Communities" sheetId="8" r:id="rId4"/>
-    <sheet name="Organizations" sheetId="3" r:id="rId5"/>
-    <sheet name="LogicModels" sheetId="11" r:id="rId6"/>
-    <sheet name="Programs" sheetId="6" r:id="rId7"/>
-    <sheet name="Services" sheetId="7" r:id="rId8"/>
-    <sheet name="Funding" sheetId="2" r:id="rId9"/>
+    <sheet name="Communities" sheetId="8" r:id="rId3"/>
+    <sheet name="Organizations" sheetId="3" r:id="rId4"/>
+    <sheet name="LogicModels" sheetId="11" r:id="rId5"/>
+    <sheet name="Programs" sheetId="6" r:id="rId6"/>
+    <sheet name="Services" sheetId="7" r:id="rId7"/>
+    <sheet name="Funding" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funding!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">LogicModels!$B$3:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Programs!$A$2:$F$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Services!$A$1:$N$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Funding!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">LogicModels!$B$3:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Programs!$A$2:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Services!$A$1:$N$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxonomies!$A$2:$D$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="385">
   <si>
     <t>Funding</t>
   </si>
@@ -1205,144 +1204,6 @@
   </si>
   <si>
     <t>Area1_Female_Homeless</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Monthly Income</t>
-  </si>
-  <si>
-    <t>Health Status</t>
-  </si>
-  <si>
-    <t>Food Access</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Need</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>improve, achieve, acquire</t>
-  </si>
-  <si>
-    <t>Characteristic</t>
-  </si>
-  <si>
-    <t>improve</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Young male who is homeless, and wants to find housing</t>
-  </si>
-  <si>
-    <t>Young male who is homeless suffers form addiciton, and wants to become sober</t>
-  </si>
-  <si>
-    <t>Young female, living with low income who wants not to live in low income</t>
-  </si>
-  <si>
-    <t>Adult female high-school dropout, wants to get her GED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle aged female who with precarious access to food, wants to stable access to food </t>
-  </si>
-  <si>
-    <t>Improve housing status</t>
-  </si>
-  <si>
-    <t>housing status</t>
-  </si>
-  <si>
-    <t>hasCode X</t>
-  </si>
-  <si>
-    <t>mental health status</t>
-  </si>
-  <si>
-    <t>Need Taxonomy</t>
-  </si>
-  <si>
-    <t>Improve mental health</t>
-  </si>
-  <si>
-    <t>Raise income level</t>
-  </si>
-  <si>
-    <t>monthly income</t>
-  </si>
-  <si>
-    <t>Improve education attainment</t>
-  </si>
-  <si>
-    <t>ND-improve_housing</t>
-  </si>
-  <si>
-    <t>ND-improve_mental_health</t>
-  </si>
-  <si>
-    <t>ND-raise_income</t>
-  </si>
-  <si>
-    <t>Educational attainment</t>
-  </si>
-  <si>
-    <t>Improve access to food</t>
-  </si>
-  <si>
-    <t>Access to food</t>
-  </si>
-  <si>
-    <t>ND-improve_access_to_food</t>
-  </si>
-  <si>
-    <t>ND-improve_educational_attainment</t>
-  </si>
-  <si>
-    <t>CurrentState</t>
-  </si>
-  <si>
-    <t>age=17, gender=male, housing-status=homeless</t>
-  </si>
-  <si>
-    <t>DesiredState</t>
-  </si>
-  <si>
-    <t>housing-state=housed</t>
-  </si>
-  <si>
-    <t>age=20, gender=male, housing-status=homeless, health-status=addicted</t>
-  </si>
-  <si>
-    <t>health-status=sober</t>
-  </si>
-  <si>
-    <t>NeedSatisfier</t>
-  </si>
-  <si>
-    <t>NS-House</t>
-  </si>
-  <si>
-    <t>CL-Housing</t>
-  </si>
-  <si>
-    <t>NL-Addiction_Treatment</t>
-  </si>
-  <si>
-    <t>CL-Peer_Support_Group</t>
-  </si>
-  <si>
-    <t>NL-Peer_Support</t>
-  </si>
-  <si>
-    <t>CL-Addiction_Services</t>
   </si>
 </sst>
 </file>
@@ -2033,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E49A9-2DA0-1E4E-8DC9-95F1075482B8}">
-  <dimension ref="A2:O45"/>
+  <dimension ref="A2:D45"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2045,7 +1906,7 @@
     <col min="2" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -2059,7 +1920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>376</v>
       </c>
@@ -2067,7 +1928,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>374</v>
       </c>
@@ -2082,23 +1943,8 @@
         <f t="shared" ref="D4:D18" si="1">SUBSTITUTE(B4, "TL-","CL-")</f>
         <v>CL-Age</v>
       </c>
-      <c r="G4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K4" t="s">
-        <v>386</v>
-      </c>
-      <c r="M4" t="s">
-        <v>388</v>
-      </c>
-      <c r="O4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -2114,7 +1960,7 @@
         <v>CL-Youth</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -2130,7 +1976,7 @@
         <v>CL-Adult</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -2146,7 +1992,7 @@
         <v>CL-Senior</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -2162,7 +2008,7 @@
         <v>CL-Toddler</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>374</v>
       </c>
@@ -2178,7 +2024,7 @@
         <v>CL-Gender</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -2194,7 +2040,7 @@
         <v>CL-Male</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -2210,7 +2056,7 @@
         <v>CL-Female</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>250</v>
       </c>
@@ -2226,7 +2072,7 @@
         <v>CL-Other</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>374</v>
       </c>
@@ -2242,7 +2088,7 @@
         <v>CL-Housing-State</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -2258,7 +2104,7 @@
         <v>CL-Housed</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>254</v>
       </c>
@@ -2274,7 +2120,7 @@
         <v>CL-Homeless</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>254</v>
       </c>
@@ -2688,187 +2534,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965B6BA4-F773-F84B-98B0-640D50853606}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I3" t="s">
-        <v>426</v>
-      </c>
-      <c r="J3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" t="s">
-        <v>422</v>
-      </c>
-      <c r="G4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I4" t="s">
-        <v>430</v>
-      </c>
-      <c r="J4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H5" t="s">
-        <v>429</v>
-      </c>
-      <c r="I5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D6" t="s">
-        <v>412</v>
-      </c>
-      <c r="J6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D7" t="s">
-        <v>417</v>
-      </c>
-      <c r="J7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" t="s">
-        <v>415</v>
-      </c>
-      <c r="D8" t="s">
-        <v>416</v>
-      </c>
-      <c r="J8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4E522F-E063-BB4C-B444-C88B8AEDCA8C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3158,7 +2827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7052CC-892D-974D-8A24-08B944B52E5F}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -3474,7 +3143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C018D5EC-E981-8D4E-8560-6CCE31F45EF8}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -4071,7 +3740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E2C48F-5EB0-9249-ABA5-5BED0193EFCE}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -4586,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A168A40-4F98-2D4B-9B19-5D3AF53C327F}">
   <dimension ref="A1:O27"/>
   <sheetViews>
@@ -5384,7 +5053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47583244-2CD0-9444-A54A-60419E0E2F84}">
   <dimension ref="A1:G23"/>
   <sheetViews>

--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -5,30 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mie008443/work/compass/funding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mie008443/work/compass/csv2turtle/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76946485-9DF9-3544-98D8-FC57D06BD80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846E4491-8BB6-C24C-AC88-E8CBAF2E0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="2" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="1" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="4" r:id="rId1"/>
     <sheet name="Taxonomies" sheetId="9" r:id="rId2"/>
-    <sheet name="Needs" sheetId="12" r:id="rId3"/>
-    <sheet name="Communities" sheetId="8" r:id="rId4"/>
-    <sheet name="Organizations" sheetId="3" r:id="rId5"/>
-    <sheet name="LogicModels" sheetId="11" r:id="rId6"/>
-    <sheet name="Programs" sheetId="6" r:id="rId7"/>
-    <sheet name="Services" sheetId="7" r:id="rId8"/>
-    <sheet name="Funding" sheetId="2" r:id="rId9"/>
+    <sheet name="Communities" sheetId="8" r:id="rId3"/>
+    <sheet name="Organizations" sheetId="3" r:id="rId4"/>
+    <sheet name="LogicModels" sheetId="11" r:id="rId5"/>
+    <sheet name="Programs" sheetId="6" r:id="rId6"/>
+    <sheet name="Services" sheetId="7" r:id="rId7"/>
+    <sheet name="Funding" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Funding!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">LogicModels!$B$3:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Programs!$A$2:$F$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Services!$A$1:$N$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxonomies!$A$2:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Funding!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">LogicModels!$B$3:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Programs!$A$2:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Services!$A$1:$N$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="387">
   <si>
     <t>Funding</t>
   </si>
@@ -259,9 +257,6 @@
     <t>Identifies characteristics that limit who can use the service, listed in Client taxonomy code list. Can be defined as a Code through hasCode</t>
   </si>
   <si>
-    <t>CodeValue</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -787,99 +782,6 @@
     <t>offline</t>
   </si>
   <si>
-    <t>TL-Age</t>
-  </si>
-  <si>
-    <t>TL-Youth</t>
-  </si>
-  <si>
-    <t>TL-Adult</t>
-  </si>
-  <si>
-    <t>TL-Senior</t>
-  </si>
-  <si>
-    <t>TL-Toddler</t>
-  </si>
-  <si>
-    <t>TL-Gender</t>
-  </si>
-  <si>
-    <t>TL-Male</t>
-  </si>
-  <si>
-    <t>TL-Female</t>
-  </si>
-  <si>
-    <t>TL-Other</t>
-  </si>
-  <si>
-    <t>TL-Housing-State</t>
-  </si>
-  <si>
-    <t>TL-Housed</t>
-  </si>
-  <si>
-    <t>TL-Homeless</t>
-  </si>
-  <si>
-    <t>TL-Temporary-Housing</t>
-  </si>
-  <si>
-    <t>TL-Prison</t>
-  </si>
-  <si>
-    <t>TL-Institutionlized</t>
-  </si>
-  <si>
-    <t>TL-Shelter</t>
-  </si>
-  <si>
-    <t>TL-Education</t>
-  </si>
-  <si>
-    <t>TL-Highschool</t>
-  </si>
-  <si>
-    <t>TL-Higher-Education</t>
-  </si>
-  <si>
-    <t>TL-Gradeschool</t>
-  </si>
-  <si>
-    <t>TL-Trade-School</t>
-  </si>
-  <si>
-    <t>TL-Food</t>
-  </si>
-  <si>
-    <t>TL-Hot-Meal</t>
-  </si>
-  <si>
-    <t>TL-Bagged-Lunch</t>
-  </si>
-  <si>
-    <t>TL-Groceries</t>
-  </si>
-  <si>
-    <t>TL-Soup-Kitchen</t>
-  </si>
-  <si>
-    <t>TL-Health</t>
-  </si>
-  <si>
-    <t>TL-Mental-Health</t>
-  </si>
-  <si>
-    <t>TL-Physical-Health</t>
-  </si>
-  <si>
-    <t>TL-Healthy</t>
-  </si>
-  <si>
-    <t>TL-Undiagnosed</t>
-  </si>
-  <si>
     <t>Characteristics of the community, with (hasCode)</t>
   </si>
   <si>
@@ -1207,142 +1109,106 @@
     <t>Area1_Female_Homeless</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Monthly Income</t>
-  </si>
-  <si>
-    <t>Health Status</t>
-  </si>
-  <si>
-    <t>Food Access</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Need</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>improve, achieve, acquire</t>
-  </si>
-  <si>
-    <t>Characteristic</t>
-  </si>
-  <si>
-    <t>improve</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Young male who is homeless, and wants to find housing</t>
-  </si>
-  <si>
-    <t>Young male who is homeless suffers form addiciton, and wants to become sober</t>
-  </si>
-  <si>
-    <t>Young female, living with low income who wants not to live in low income</t>
-  </si>
-  <si>
-    <t>Adult female high-school dropout, wants to get her GED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle aged female who with precarious access to food, wants to stable access to food </t>
-  </si>
-  <si>
-    <t>Improve housing status</t>
-  </si>
-  <si>
-    <t>housing status</t>
-  </si>
-  <si>
-    <t>hasCode X</t>
-  </si>
-  <si>
-    <t>mental health status</t>
-  </si>
-  <si>
-    <t>Need Taxonomy</t>
-  </si>
-  <si>
-    <t>Improve mental health</t>
-  </si>
-  <si>
-    <t>Raise income level</t>
-  </si>
-  <si>
-    <t>monthly income</t>
-  </si>
-  <si>
-    <t>Improve education attainment</t>
-  </si>
-  <si>
-    <t>ND-improve_housing</t>
-  </si>
-  <si>
-    <t>ND-improve_mental_health</t>
-  </si>
-  <si>
-    <t>ND-raise_income</t>
-  </si>
-  <si>
-    <t>Educational attainment</t>
-  </si>
-  <si>
-    <t>Improve access to food</t>
-  </si>
-  <si>
-    <t>Access to food</t>
-  </si>
-  <si>
-    <t>ND-improve_access_to_food</t>
-  </si>
-  <si>
-    <t>ND-improve_educational_attainment</t>
-  </si>
-  <si>
-    <t>CurrentState</t>
-  </si>
-  <si>
-    <t>age=17, gender=male, housing-status=homeless</t>
-  </si>
-  <si>
-    <t>DesiredState</t>
-  </si>
-  <si>
-    <t>housing-state=housed</t>
-  </si>
-  <si>
-    <t>age=20, gender=male, housing-status=homeless, health-status=addicted</t>
-  </si>
-  <si>
-    <t>health-status=sober</t>
-  </si>
-  <si>
-    <t>NeedSatisfier</t>
-  </si>
-  <si>
-    <t>NS-House</t>
-  </si>
-  <si>
-    <t>CL-Housing</t>
-  </si>
-  <si>
-    <t>NL-Addiction_Treatment</t>
-  </si>
-  <si>
-    <t>CL-Peer_Support_Group</t>
-  </si>
-  <si>
-    <t>NL-Peer_Support</t>
-  </si>
-  <si>
-    <t>CL-Addiction_Services</t>
+    <t>CL-Age</t>
+  </si>
+  <si>
+    <t>CL-Gender</t>
+  </si>
+  <si>
+    <t>CL-Housing-State</t>
+  </si>
+  <si>
+    <t>INST-Age</t>
+  </si>
+  <si>
+    <t>INST-Youth</t>
+  </si>
+  <si>
+    <t>INST-Adult</t>
+  </si>
+  <si>
+    <t>INST-Senior</t>
+  </si>
+  <si>
+    <t>INST-Toddler</t>
+  </si>
+  <si>
+    <t>INST-Gender</t>
+  </si>
+  <si>
+    <t>INST-Male</t>
+  </si>
+  <si>
+    <t>INST-Female</t>
+  </si>
+  <si>
+    <t>INST-Other</t>
+  </si>
+  <si>
+    <t>INST-Housing-State</t>
+  </si>
+  <si>
+    <t>INST-Housed</t>
+  </si>
+  <si>
+    <t>INST-Homeless</t>
+  </si>
+  <si>
+    <t>INST-Temporary-Housing</t>
+  </si>
+  <si>
+    <t>INST-Prison</t>
+  </si>
+  <si>
+    <t>INST-Institutionlized</t>
+  </si>
+  <si>
+    <t>INST-Shelter</t>
+  </si>
+  <si>
+    <t>INST-Education</t>
+  </si>
+  <si>
+    <t>INST-Highschool</t>
+  </si>
+  <si>
+    <t>INST-Higher-Education</t>
+  </si>
+  <si>
+    <t>INST-Gradeschool</t>
+  </si>
+  <si>
+    <t>INST-Trade-School</t>
+  </si>
+  <si>
+    <t>INST-Food</t>
+  </si>
+  <si>
+    <t>INST-Hot-Meal</t>
+  </si>
+  <si>
+    <t>INST-Bagged-Lunch</t>
+  </si>
+  <si>
+    <t>INST-Groceries</t>
+  </si>
+  <si>
+    <t>INST-Soup-Kitchen</t>
+  </si>
+  <si>
+    <t>INST-Health</t>
+  </si>
+  <si>
+    <t>INST-Mental-Health</t>
+  </si>
+  <si>
+    <t>INST-Physical-Health</t>
+  </si>
+  <si>
+    <t>INST-Healthy</t>
+  </si>
+  <si>
+    <t>INST-Undiagnosed</t>
   </si>
 </sst>
 </file>
@@ -1832,66 +1698,66 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1901,59 +1767,59 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1961,68 +1827,68 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E49A9-2DA0-1E4E-8DC9-95F1075482B8}">
-  <dimension ref="A2:O45"/>
+  <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2045,826 +1911,392 @@
     <col min="2" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C42" si="0">SUBSTITUTE(B4, "TL-","INST-")</f>
-        <v>INST-Age</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D18" si="1">SUBSTITUTE(B4, "TL-","CL-")</f>
+        <v>353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <f>B4</f>
         <v>CL-Age</v>
       </c>
-      <c r="G4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K4" t="s">
-        <v>386</v>
-      </c>
-      <c r="M4" t="s">
-        <v>388</v>
-      </c>
-      <c r="O4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="C5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B8" si="0">B5</f>
+        <v>CL-Age</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>INST-Youth</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Youth</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" t="str">
+        <v>CL-Age</v>
+      </c>
+      <c r="C7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>INST-Adult</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Adult</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Senior</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Senior</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Toddler</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Toddler</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>CL-Age</v>
+      </c>
+      <c r="C8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Gender</v>
-      </c>
-      <c r="D9" t="str">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <f>B9</f>
+        <v>CL-Gender</v>
+      </c>
+      <c r="C10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="str">
+        <f t="shared" ref="B11:B12" si="1">B10</f>
+        <v>CL-Gender</v>
+      </c>
+      <c r="C11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
         <f t="shared" si="1"/>
         <v>CL-Gender</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Male</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Male</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Female</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Female</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Other</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Other</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="str">
+        <f>B13</f>
+        <v>CL-Housing-State</v>
+      </c>
+      <c r="C14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <f t="shared" ref="B15:B18" si="2">B14</f>
+        <v>CL-Housing-State</v>
+      </c>
+      <c r="C15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>CL-Housing-State</v>
+      </c>
+      <c r="C16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>CL-Housing-State</v>
+      </c>
+      <c r="C17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>CL-Housing-State</v>
+      </c>
+      <c r="C18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:C20" si="3">SUBSTITUTE(B19, "TL-","INST-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <f>B22</f>
+        <v>CL-Shelter</v>
+      </c>
+      <c r="C23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:B27" si="4">B23</f>
+        <v>CL-Shelter</v>
+      </c>
+      <c r="C24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <f t="shared" si="4"/>
+        <v>CL-Shelter</v>
+      </c>
+      <c r="C25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <f t="shared" si="4"/>
+        <v>CL-Shelter</v>
+      </c>
+      <c r="C26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <f t="shared" si="4"/>
+        <v>CL-Shelter</v>
+      </c>
+      <c r="C27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <f>B28</f>
+        <v>CL-Education</v>
+      </c>
+      <c r="C29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <f t="shared" ref="B30:B32" si="5">B29</f>
+        <v>CL-Education</v>
+      </c>
+      <c r="C30" t="s">
         <v>374</v>
       </c>
-      <c r="B13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Housing-State</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Housing-State</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Housed</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Housed</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Homeless</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Homeless</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Temporary-Housing</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Temporary-Housing</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Prison</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Prison</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Institutionlized</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>CL-Institutionlized</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <f t="shared" si="5"/>
+        <v>CL-Education</v>
+      </c>
+      <c r="C31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <f t="shared" si="5"/>
+        <v>CL-Education</v>
+      </c>
+      <c r="C32" t="s">
         <v>376</v>
       </c>
-      <c r="B21" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>375</v>
-      </c>
-      <c r="B22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Shelter</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" ref="D22:D42" si="2">SUBSTITUTE(B22, "TL-","CL-")</f>
-        <v>CL-Shelter</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Housed</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Housed</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>260</v>
-      </c>
-      <c r="B24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Homeless</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Homeless</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Temporary-Housing</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Temporary-Housing</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B26" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Prison</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Prison</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Institutionlized</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Institutionlized</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>375</v>
-      </c>
-      <c r="B28" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Education</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Education</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Highschool</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Highschool</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Higher-Education</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Higher-Education</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B31" t="s">
-        <v>264</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Gradeschool</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Gradeschool</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>261</v>
-      </c>
-      <c r="B32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Trade-School</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Trade-School</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Food</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <f>B33</f>
         <v>CL-Food</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>266</v>
-      </c>
-      <c r="B34" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Hot-Meal</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Hot-Meal</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>266</v>
-      </c>
-      <c r="B35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Bagged-Lunch</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Bagged-Lunch</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Groceries</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Groceries</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>266</v>
-      </c>
-      <c r="B37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Soup-Kitchen</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Soup-Kitchen</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <f t="shared" ref="B35:B37" si="6">B34</f>
+        <v>CL-Food</v>
+      </c>
+      <c r="C35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <f t="shared" si="6"/>
+        <v>CL-Food</v>
+      </c>
+      <c r="C36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <f t="shared" si="6"/>
+        <v>CL-Food</v>
+      </c>
+      <c r="C37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Health</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <f>B38</f>
         <v>CL-Health</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39" t="s">
-        <v>272</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Mental-Health</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Mental-Health</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>271</v>
-      </c>
-      <c r="B40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Physical-Health</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Physical-Health</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41" t="s">
-        <v>274</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Healthy</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Healthy</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>271</v>
-      </c>
-      <c r="B42" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>INST-Undiagnosed</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="2"/>
-        <v>CL-Undiagnosed</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <f>B39</f>
+        <v>CL-Health</v>
+      </c>
+      <c r="C40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <f t="shared" ref="B41:B42" si="7">B40</f>
+        <v>CL-Health</v>
+      </c>
+      <c r="C41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <f t="shared" si="7"/>
+        <v>CL-Health</v>
+      </c>
+      <c r="C42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D42" xr:uid="{BC4E49A9-2DA0-1E4E-8DC9-95F1075482B8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965B6BA4-F773-F84B-98B0-640D50853606}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I3" t="s">
-        <v>426</v>
-      </c>
-      <c r="J3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" t="s">
-        <v>422</v>
-      </c>
-      <c r="G4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I4" t="s">
-        <v>430</v>
-      </c>
-      <c r="J4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H5" t="s">
-        <v>429</v>
-      </c>
-      <c r="I5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D6" t="s">
-        <v>412</v>
-      </c>
-      <c r="J6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D7" t="s">
-        <v>417</v>
-      </c>
-      <c r="J7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" t="s">
-        <v>415</v>
-      </c>
-      <c r="D8" t="s">
-        <v>416</v>
-      </c>
-      <c r="J8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4E522F-E063-BB4C-B444-C88B8AEDCA8C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2886,16 +2318,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2903,254 +2335,254 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
         <v>111</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
         <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
         <v>111</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
         <v>111</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
         <v>111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
         <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
         <v>111</v>
-      </c>
-      <c r="E12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3158,7 +2590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7052CC-892D-974D-8A24-08B944B52E5F}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -3179,16 +2611,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3207,19 +2639,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -3243,7 +2675,7 @@
         <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
         <v>38</v>
@@ -3263,134 +2695,134 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
@@ -3401,19 +2833,19 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -3424,42 +2856,42 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
         <v>216</v>
       </c>
-      <c r="D12" t="s">
+      <c r="J12" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="K12" t="s">
         <v>217</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="K12" t="s">
-        <v>218</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -3474,7 +2906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C018D5EC-E981-8D4E-8560-6CCE31F45EF8}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -3492,45 +2924,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="J1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3539,13 +2971,13 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>63</v>
@@ -3554,53 +2986,53 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="G4" t="s">
         <v>67</v>
@@ -3608,45 +3040,45 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
         <v>67</v>
@@ -3654,137 +3086,137 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="G7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
@@ -3792,278 +3224,278 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" t="s">
         <v>224</v>
       </c>
-      <c r="B25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>225</v>
       </c>
-      <c r="E25" t="s">
-        <v>226</v>
-      </c>
       <c r="F25" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" t="s">
         <v>224</v>
       </c>
-      <c r="B26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" t="s">
-        <v>225</v>
-      </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F26" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4071,7 +3503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E2C48F-5EB0-9249-ABA5-5BED0193EFCE}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -4109,7 +3541,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -4120,464 +3552,464 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.CONCAT(A3, " Name")</f>
         <v>P10-1 Name</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B26" si="0">_xlfn.CONCAT(A4, " Name")</f>
         <v>P10-2 Name</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>P10-3 Name</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>P11-1 Name</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>P11-2 Name</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>P11-3 Name</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>P12-1n2 Name</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>P12-1n2 Name</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>P12-3 Name</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>P13-1 Name</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F12" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>P13-2 Name</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>P13-3 Name</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>P13-4 Name</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>P13-4 Name</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>P20-a1 Name</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>P20-a2 Name</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>P30-a3 Name</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>P40-a4 Name</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>P40-a5 Name</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="F22" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>P50-a6na7 Name</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F23" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>P100-a100 Name</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F25" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>P101-a101 Name</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F26" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +4018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A168A40-4F98-2D4B-9B19-5D3AF53C327F}">
   <dimension ref="A1:O27"/>
   <sheetViews>
@@ -4607,16 +4039,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>53</v>
@@ -4629,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -4699,31 +4131,31 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G3" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
@@ -4731,25 +4163,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="H4" t="s">
         <v>67</v>
@@ -4763,31 +4195,31 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
@@ -4795,31 +4227,31 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
@@ -4827,25 +4259,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="H7" t="s">
         <v>67</v>
@@ -4859,31 +4291,31 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4891,31 +4323,31 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="G9" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
@@ -4923,31 +4355,31 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J10" t="s">
         <v>50</v>
@@ -4955,31 +4387,31 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="I11" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="J11" t="s">
         <v>50</v>
@@ -4987,31 +4419,31 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="H12" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="I12" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="J12" t="s">
         <v>50</v>
@@ -5019,25 +4451,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G13" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -5051,31 +4483,31 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
         <v>50</v>
@@ -5083,31 +4515,31 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="J15" t="s">
         <v>50</v>
@@ -5115,31 +4547,31 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H16" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="J16" t="s">
         <v>50</v>
@@ -5147,31 +4579,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="I17" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="J17" t="s">
         <v>50</v>
@@ -5179,204 +4611,204 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G19" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G20" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G21" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="J21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G22" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="J22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G23" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="J23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G24" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="J24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +4816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47583244-2CD0-9444-A54A-60419E0E2F84}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -5403,22 +4835,22 @@
         <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5426,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -5449,10 +4881,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -5461,10 +4893,10 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5472,10 +4904,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -5484,10 +4916,10 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5495,10 +4927,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -5507,10 +4939,10 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5518,10 +4950,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -5530,10 +4962,10 @@
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5541,10 +4973,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -5553,10 +4985,10 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5564,10 +4996,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -5576,10 +5008,10 @@
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5587,10 +5019,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -5599,10 +5031,10 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5610,10 +5042,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -5622,10 +5054,10 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5633,10 +5065,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11">
         <v>55</v>
@@ -5645,10 +5077,10 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5656,10 +5088,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -5668,10 +5100,10 @@
         <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5679,10 +5111,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -5691,10 +5123,10 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5702,10 +5134,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -5714,10 +5146,10 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5725,10 +5157,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15">
         <v>120</v>
@@ -5737,10 +5169,10 @@
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5748,10 +5180,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -5760,10 +5192,10 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5771,10 +5203,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -5783,10 +5215,10 @@
         <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5794,10 +5226,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -5806,10 +5238,10 @@
         <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5817,10 +5249,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -5829,21 +5261,21 @@
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -5852,21 +5284,21 @@
         <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -5875,21 +5307,21 @@
         <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -5898,10 +5330,10 @@
         <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mie008443/work/compass/csv2turtle/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EFBDFC-9BB6-0743-9070-E57B6163022E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2FDD3-D8EA-CE49-A3AF-ABF5AC879D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="4" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="1" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="401">
   <si>
     <t>Funding</t>
   </si>
@@ -83,9 +83,6 @@
     <t>a7</t>
   </si>
   <si>
-    <t>CL-Homeless</t>
-  </si>
-  <si>
     <t>CL-Shelter</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
     <t>act:hasSubActivity</t>
   </si>
   <si>
-    <t>cids:hasCode CL-Homeless</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Youth</t>
-  </si>
-  <si>
     <t>Identifies characteristics that limit who can use the service, listed in Client taxonomy code list. Can be defined as a Code through hasCode</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>hasCharacteristic</t>
   </si>
   <si>
-    <t>CL-Funder</t>
-  </si>
-  <si>
     <t>receivedFrom</t>
   </si>
   <si>
@@ -368,36 +356,12 @@
     <t>parcel location for the Community</t>
   </si>
   <si>
-    <t>cids:hasCode CL-Funding</t>
-  </si>
-  <si>
-    <t>CL-Adult,CL-Female,CL-Homeless</t>
-  </si>
-  <si>
-    <t>CL-Adult,CL-Male,CL-Homeless</t>
-  </si>
-  <si>
-    <t>CL-Youth,CL-Male, CL-Homeless</t>
-  </si>
-  <si>
     <t>Area0_Land_Area</t>
   </si>
   <si>
     <t>Area0_Location</t>
   </si>
   <si>
-    <t>cids:hasCode CL-Female,cids:hasCode CL-Homeless, cids:hasCode CL-Youth</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Female, cids:hasCode CL-Youth</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Female</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Homeless, cids:hasCode CL-Adult</t>
-  </si>
-  <si>
     <t>Shelter for young homeless women</t>
   </si>
   <si>
@@ -449,12 +413,6 @@
     <t>Education for homeless young females, and homeles yong females</t>
   </si>
   <si>
-    <t>cids:hasCode CL-Female,cids:hasCode CL-Youth</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Female, cids:hasCode CL-Adult</t>
-  </si>
-  <si>
     <t>P10-1</t>
   </si>
   <si>
@@ -623,12 +581,6 @@
     <t>Org50 Legal Name</t>
   </si>
   <si>
-    <t>CL-Shelter, CL-Food</t>
-  </si>
-  <si>
-    <t>CL-Health, CL-Food</t>
-  </si>
-  <si>
     <t>LM11-1, LM11-2, LM11-3</t>
   </si>
   <si>
@@ -764,18 +716,6 @@
     <t>Identifies client characteristics that the service focuses on, listed in Client, with (hasCode) taxonomy code list. Can be defined as a Code through hasCode.</t>
   </si>
   <si>
-    <t>cids:hasCode CL-Young, cids:hasCode CL-Male</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Adult, cids:hasCode CL-Male</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Homeless, cids:hasCode CL-Adult, cids:hasCode CL-Female</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Homeless, cids:hasCode CL-Adult, cids:hasCode CL-Male</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -899,93 +839,6 @@
     <t>Instance label for the service</t>
   </si>
   <si>
-    <t>cids:hasCode CL-Shelter</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Food</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Health</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Education</t>
-  </si>
-  <si>
-    <t>CL-Homeless,CL-Female,CL-Youth</t>
-  </si>
-  <si>
-    <t>sh_Homeless_Female_Youth_Area0</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area1</t>
-  </si>
-  <si>
-    <t>sh_Homeless_Female_Youth_Area1</t>
-  </si>
-  <si>
-    <t>sh_Food_Shelter_Area0</t>
-  </si>
-  <si>
-    <t>CL-Food, CL-Shelter</t>
-  </si>
-  <si>
-    <t>sh_Food_Area0</t>
-  </si>
-  <si>
-    <t>sh_Food_Health_Area1</t>
-  </si>
-  <si>
-    <t>sh_Education_Area1</t>
-  </si>
-  <si>
-    <t>CL-Food,CL-Health</t>
-  </si>
-  <si>
-    <t>sh_Funder_Area0</t>
-  </si>
-  <si>
-    <t>sh_Funder_Area1</t>
-  </si>
-  <si>
-    <t>sh_Funder_Area0,sh_Funder_Area1</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area0,sh_Homeless_Female_Youth_Area0,sh_Homeless_Female_Youth_Area0</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area0,sh_Adult_Male_Homeless_Area0</t>
-  </si>
-  <si>
-    <t>sh_Homeless_Female_Youth_Area0, sh_Homeless_Female_Youth_Area0</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area1, sh_Homeless_Female_Youth_Area1</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area1, sh_Homeless_Female_Youth_Area1, sh_Homeless_Female_Youth_Area1</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area1, sh_Adult_Male_Homeless_Area1, sh_Homeless_Female_Youth_Area1, sh_Homeless_Female_Youth_Area1, sh_Homeless_Area1</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area1,sh_Homeless_Female_Youth_Area1</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area0, sh_Adult_Male_Homeless_Area0</t>
-  </si>
-  <si>
-    <t>sh_Food_Area0, sh_Food_Health_Area1</t>
-  </si>
-  <si>
-    <t>sh_Funder_Area0, sh_Funder_Area1</t>
-  </si>
-  <si>
-    <t>sh_Adult_Female_Homeless_Area0, sh_Homeless_Female_Youth_Area0, sh_Homeless_Female_Youth_Area0</t>
-  </si>
-  <si>
-    <t>sh_Food_Shelter_Area0, sh_Food_Area0</t>
-  </si>
-  <si>
     <t>hasLegalName</t>
   </si>
   <si>
@@ -1013,15 +866,6 @@
     <t>CommunityCharacteristic</t>
   </si>
   <si>
-    <t>sh_Homeless_Female_Youth_Area0, sh_Female_Youth_Area0</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Homeless, cids:hasCode CL-Female</t>
-  </si>
-  <si>
-    <t>cids:hasCode CL-Homeless, cids:hasCode CL-Male</t>
-  </si>
-  <si>
     <t>CL-Age</t>
   </si>
   <si>
@@ -1091,24 +935,6 @@
     <t>INST-Health</t>
   </si>
   <si>
-    <t>INST-Healthy</t>
-  </si>
-  <si>
-    <t>INST-Undiagnosed</t>
-  </si>
-  <si>
-    <t>Comp-CL-Female-Homeless-Youth, Comp-CL-Female-Youth, Comp-CL-Adult-Homeless</t>
-  </si>
-  <si>
-    <t>CL-Youth, Comp-CL-Female-Homeless-Youth, Comp-CL-Female-Youth</t>
-  </si>
-  <si>
-    <t>Comp-CL-Female-Youth, Comp-CL-Adult-Female, Comp-CL-Adult-Female-Homeless, Comp-CL-Adult-Female-Homeless, Comp-CL-Adult-Homeless-Male</t>
-  </si>
-  <si>
-    <t>CL-Homeless, CL-Female, Comp-CL-Male-Youth, Comp-CL-Adult-Female</t>
-  </si>
-  <si>
     <t>sh-Adult-Female-Homeless-in_Area0</t>
   </si>
   <si>
@@ -1220,22 +1046,211 @@
     <t>Area1-Health</t>
   </si>
   <si>
-    <t>Comp-CL-Female-Homeless-Youth</t>
-  </si>
-  <si>
-    <t>Comp-CL-Homeles-Youth</t>
-  </si>
-  <si>
-    <t>Comp-CL-Male-Youth</t>
-  </si>
-  <si>
-    <t>Comp-CL-Female-Youth</t>
-  </si>
-  <si>
-    <t>Comp-CL-Adult-Female-Homeless</t>
-  </si>
-  <si>
-    <t>Como-CL-Adult-Female</t>
+    <t>INST-ClientCode</t>
+  </si>
+  <si>
+    <t>INST-ServiceCode</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Homeless, cids:hasCode INST-Female</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Homeless, cids:hasCode INST-Male</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Funding</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Shelter</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Food</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Education</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Health</t>
+  </si>
+  <si>
+    <t>INST-Adult,INST-Female,INST-Homeless</t>
+  </si>
+  <si>
+    <t>INST-Adult,INST-Male,INST-Homeless</t>
+  </si>
+  <si>
+    <t>INST-Homeless,INST-Female,INST-Youth</t>
+  </si>
+  <si>
+    <t>INST-Youth,INST-Male, INST-Homeless</t>
+  </si>
+  <si>
+    <t>INST-Food, INST-Shelter</t>
+  </si>
+  <si>
+    <t>INST-Food,INST-Health</t>
+  </si>
+  <si>
+    <t>INST-Funder</t>
+  </si>
+  <si>
+    <t>Comp-INST-Female-Homeless-Youth, Comp-INST-Female-Youth, Comp-INST-Adult-Homeless</t>
+  </si>
+  <si>
+    <t>INST-Youth, Comp-INST-Female-Homeless-Youth, Comp-INST-Female-Youth</t>
+  </si>
+  <si>
+    <t>Comp-INST-Female-Youth, Comp-INST-Adult-Female, Comp-INST-Adult-Female-Homeless, Comp-INST-Adult-Female-Homeless, Comp-INST-Adult-Homeless-Male</t>
+  </si>
+  <si>
+    <t>INST-Homeless, INST-Female, Comp-INST-Male-Youth, Comp-INST-Adult-Female</t>
+  </si>
+  <si>
+    <t>INST-Shelter, INST-Food</t>
+  </si>
+  <si>
+    <t>INST-Health, INST-Food</t>
+  </si>
+  <si>
+    <t>INST-Funding</t>
+  </si>
+  <si>
+    <t>sh-Homeless-Female-Youth-Area0</t>
+  </si>
+  <si>
+    <t>sh-Homeless-Female-Youth-Area0, sh-Homeless-Female-Youth-Area0</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-Area0, sh-Adult-Male-Homeless-Area0</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-Area1, sh-Homeless-Female-Youth-Area1, sh-Homeless-Female-Youth-Area1</t>
+  </si>
+  <si>
+    <t>sh-Homeless-Female-Youth-Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-Area1, sh-Adult-Male-Homeless-Area1, sh-Homeless-Female-Youth-Area1, sh-Homeless-Female-Youth-Area1, sh-Homeless-Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-Area1, sh-Homeless-Female-Youth-Area1</t>
+  </si>
+  <si>
+    <t>sh-Food-Shelter-Area0</t>
+  </si>
+  <si>
+    <t>sh-Food-Area0</t>
+  </si>
+  <si>
+    <t>sh-Education-Area1</t>
+  </si>
+  <si>
+    <t>sh-Food-Area0, sh-Food-Health-Area1</t>
+  </si>
+  <si>
+    <t>sh-Funder-Area0</t>
+  </si>
+  <si>
+    <t>sh-Funder-Area0,sh-Funder-Area1</t>
+  </si>
+  <si>
+    <t>Comp-INST-Female-Homeless-Youth</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Youth</t>
+  </si>
+  <si>
+    <t>Comp-INST-Homeles-Youth</t>
+  </si>
+  <si>
+    <t>Comp-INST-Male-Youth</t>
+  </si>
+  <si>
+    <t>Comp-INST-Female-Youth</t>
+  </si>
+  <si>
+    <t>Comp-INST-Adult-Female-Homeless</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Homeless</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Female</t>
+  </si>
+  <si>
+    <t>Como-INST-Adult-Female</t>
+  </si>
+  <si>
+    <t>sh-Funder-in_Area0, sh-Funder-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area0, sh-Homeless-Female-Youth-in_Area0, sh-Homeless-Female-Youth-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area0, sh-Adult-Male-Homeless-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Homeless-Female-Youth-in_Area0, sh-Homeless-Female-Youth-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area1, sh-Homeless-Female-Youth-in_Area1, sh-Homeless-Female-Youth-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area1, sh-Adult-Male-Homeless-in_Area1, sh-Homeless-Female-Youth-in_Area1, sh-Homeless-Female-Youth-in_Area1, sh-Homeless-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area1, sh-Homeless-Female-Youth-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Food-Shelter-in_Area0, sh-Food-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Homeless-Female-Youth-in_Area0, sh-Female-Youth-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Food-in_Area0, sh-Food-Health-in_Area1</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Female,cids:hasCode INST-Homeless, cids:hasCode INST-Youth</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Homeless, cids:hasCode INST-Adult</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Female, cids:hasCode INST-Youth</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Female, cids:hasCode INST-Adult</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Homeless, cids:hasCode INST-Adult, cids:hasCode INST-Female</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Homeless, cids:hasCode INST-Adult, cids:hasCode INST-Male</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Young, cids:hasCode INST-Male</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Adult, cids:hasCode INST-Male</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Female,cids:hasCode INST-Youth</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area0,sh-Homeless-Female-Youth-in_Area0,sh-Homeless-Female-Youth-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area0,sh-Adult-Male-Homeless-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area1,sh-Homeless-Female-Youth-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Funder-in_Area0,sh-Funder-in_Area1</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1704,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A20"/>
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1700,13 +1715,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1716,75 +1731,75 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>341</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1794,59 +1809,59 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>341</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1854,68 +1869,68 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1926,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E49A9-2DA0-1E4E-8DC9-95F1075482B8}">
-  <dimension ref="A2:C45"/>
+  <dimension ref="A2:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1940,32 +1955,35 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1974,7 +1992,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1983,7 +2001,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1992,7 +2010,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2001,18 +2019,18 @@
         <v>CL-Age</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2021,7 +2039,7 @@
         <v>CL-Gender</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2030,7 +2048,7 @@
         <v>CL-Gender</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,18 +2057,18 @@
         <v>CL-Gender</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
         <v>317</v>
       </c>
-      <c r="B13" t="s">
-        <v>375</v>
-      </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2059,7 +2077,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2068,7 +2086,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,7 +2095,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2086,7 +2104,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C17" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,7 +2113,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C18" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2112,21 +2130,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>269</v>
+      </c>
+      <c r="C21" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,7 +2156,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2144,7 +2165,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,7 +2174,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C25" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2162,7 +2183,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C26" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,18 +2192,18 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C27" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2191,7 +2212,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2200,7 +2221,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C30" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2209,7 +2230,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2218,18 +2239,18 @@
         <v>CL-Education</v>
       </c>
       <c r="C32" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,7 +2259,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C34" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2247,7 +2268,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C35" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2256,7 +2277,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C36" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2265,18 +2286,18 @@
         <v>CL-Food</v>
       </c>
       <c r="C37" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2285,7 +2306,7 @@
         <v>CL-Health</v>
       </c>
       <c r="C39" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2294,29 +2315,11 @@
         <v>CL-Health</v>
       </c>
       <c r="C40" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" t="str">
-        <f t="shared" ref="B41:B42" si="7">B40</f>
-        <v>CL-Health</v>
-      </c>
-      <c r="C41" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="str">
-        <f t="shared" si="7"/>
-        <v>CL-Health</v>
-      </c>
-      <c r="C42" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2328,7 +2331,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2342,19 +2345,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2362,254 +2365,254 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2625,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2638,16 +2641,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2666,265 +2669,265 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D6" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="K6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>353</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D8" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="K8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D9" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="K10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>192</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="K12" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2937,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C018D5EC-E981-8D4E-8560-6CCE31F45EF8}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G26"/>
     </sheetView>
   </sheetViews>
@@ -2951,578 +2954,578 @@
   <sheetData>
     <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="G3" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="G5" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="G7" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="G8" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="G9" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="G10" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="G15" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="G16" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>364</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E25" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3538,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+      <selection activeCell="F1" sqref="F1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3552,7 +3555,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3562,481 +3565,481 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.CONCAT(A3, " Name")</f>
         <v>P10-1 Name</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B26" si="0">_xlfn.CONCAT(A4, " Name")</f>
         <v>P10-2 Name</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>P10-3 Name</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>P11-1 Name</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>P11-2 Name</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>P11-3 Name</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>P12-1n2 Name</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>P12-1n2 Name</v>
       </c>
       <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
         <v>131</v>
       </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>P12-3 Name</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>P13-1 Name</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F12" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>P13-2 Name</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F13" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>P13-3 Name</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>P13-4 Name</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>P13-4 Name</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>P20-a1 Name</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>P20-a2 Name</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>P30-a3 Name</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>P40-a4 Name</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>P40-a5 Name</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>P50-a6na7 Name</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F23" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>P100-a100 Name</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>P101-a101 Name</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F26" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +4053,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I1" sqref="I1:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4066,47 +4069,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -4114,728 +4117,728 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" t="s">
-        <v>58</v>
-      </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>389</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>389</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>396</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>391</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>391</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>393</v>
       </c>
       <c r="I12" t="s">
-        <v>241</v>
+        <v>393</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>375</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>238</v>
+        <v>394</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>394</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
-        <v>238</v>
+        <v>394</v>
       </c>
       <c r="I16" t="s">
-        <v>238</v>
+        <v>394</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>395</v>
       </c>
       <c r="I17" t="s">
-        <v>239</v>
+        <v>395</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G19" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="J19" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G20" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="J20" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
         <v>218</v>
-      </c>
-      <c r="D21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G21" t="s">
-        <v>293</v>
-      </c>
-      <c r="J21" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G23" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J23" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4848,36 +4851,37 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4885,22 +4889,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4908,10 +4912,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -4920,10 +4924,10 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>300</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4931,10 +4935,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -4943,10 +4947,10 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4954,10 +4958,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -4966,10 +4970,10 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4977,10 +4981,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -4989,10 +4993,10 @@
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5000,10 +5004,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -5012,10 +5016,10 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5023,10 +5027,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -5035,10 +5039,10 @@
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5046,10 +5050,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -5058,10 +5062,10 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5069,10 +5073,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -5081,10 +5085,10 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5092,10 +5096,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D11">
         <v>55</v>
@@ -5104,10 +5108,10 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5115,10 +5119,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -5127,10 +5131,10 @@
         <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5138,10 +5142,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -5150,10 +5154,10 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5161,10 +5165,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -5173,10 +5177,10 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5184,10 +5188,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D15">
         <v>120</v>
@@ -5196,10 +5200,10 @@
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5207,10 +5211,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -5219,21 +5223,21 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -5242,21 +5246,21 @@
         <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -5265,21 +5269,21 @@
         <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -5288,21 +5292,21 @@
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -5311,21 +5315,21 @@
         <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -5334,21 +5338,21 @@
         <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -5357,10 +5361,10 @@
         <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mie008443/work/compass/csv2turtle/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2FDD3-D8EA-CE49-A3AF-ABF5AC879D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21627B6E-64A4-DE43-A6C3-5A03593CDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="1" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="4" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="4" r:id="rId1"/>
@@ -362,30 +362,9 @@
     <t>Area0_Location</t>
   </si>
   <si>
-    <t>Shelter for young homeless women</t>
-  </si>
-  <si>
-    <t>Shelter for young women</t>
-  </si>
-  <si>
     <t>Shelter for homeless adults</t>
   </si>
   <si>
-    <t>Food for homeless young females</t>
-  </si>
-  <si>
-    <t>Food for young people</t>
-  </si>
-  <si>
-    <t>Food for young women</t>
-  </si>
-  <si>
-    <t>Education for homeless young females</t>
-  </si>
-  <si>
-    <t>education for young females</t>
-  </si>
-  <si>
     <t>Education for Homeless Adult males and females</t>
   </si>
   <si>
@@ -395,24 +374,12 @@
     <t>Health for Females</t>
   </si>
   <si>
-    <t>Health for young males</t>
-  </si>
-  <si>
     <t>LogicModel this service is a part of</t>
   </si>
   <si>
-    <t>Food for young males and adult females</t>
-  </si>
-  <si>
     <t>Food for homeless adults</t>
   </si>
   <si>
-    <t>Education for young females</t>
-  </si>
-  <si>
-    <t>Education for homeless young females, and homeles yong females</t>
-  </si>
-  <si>
     <t>P10-1</t>
   </si>
   <si>
@@ -1232,9 +1199,6 @@
     <t>cids:hasCode INST-Homeless, cids:hasCode INST-Adult, cids:hasCode INST-Male</t>
   </si>
   <si>
-    <t>cids:hasCode INST-Young, cids:hasCode INST-Male</t>
-  </si>
-  <si>
     <t>cids:hasCode INST-Adult, cids:hasCode INST-Male</t>
   </si>
   <si>
@@ -1251,6 +1215,42 @@
   </si>
   <si>
     <t>sh-Funder-in_Area0,sh-Funder-in_Area1</t>
+  </si>
+  <si>
+    <t>Shelter for Youth homeless women</t>
+  </si>
+  <si>
+    <t>Shelter for Youth women</t>
+  </si>
+  <si>
+    <t>Food for homeless Youth females</t>
+  </si>
+  <si>
+    <t>Food for Youth people</t>
+  </si>
+  <si>
+    <t>Food for Youth women</t>
+  </si>
+  <si>
+    <t>Education for homeless Youth females</t>
+  </si>
+  <si>
+    <t>education for Youth females</t>
+  </si>
+  <si>
+    <t>Health for Youth males</t>
+  </si>
+  <si>
+    <t>Food for Youth males and adult females</t>
+  </si>
+  <si>
+    <t>Education for homeless Youth females, and homeles yong females</t>
+  </si>
+  <si>
+    <t>Education for Youth females</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Youth, cids:hasCode INST-Male</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,15 +1740,15 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
         <v>98</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
         <v>98</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
         <v>103</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
@@ -1913,10 +1913,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
         <v>103</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
         <v>98</v>
@@ -1943,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E49A9-2DA0-1E4E-8DC9-95F1075482B8}">
   <dimension ref="A2:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD42"/>
     </sheetView>
   </sheetViews>
@@ -1966,24 +1966,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1992,7 +1992,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2019,18 +2019,18 @@
         <v>CL-Age</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
         <v>268</v>
-      </c>
-      <c r="B9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>CL-Gender</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2048,7 +2048,7 @@
         <v>CL-Gender</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2057,18 +2057,18 @@
         <v>CL-Gender</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2086,7 +2086,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2113,7 +2113,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C18" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2130,24 +2130,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,7 +2156,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C24" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,7 +2183,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2192,18 +2192,18 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2230,7 +2230,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C31" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2239,18 +2239,18 @@
         <v>CL-Education</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,7 +2259,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2268,7 +2268,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C35" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,7 +2277,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C36" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2286,18 +2286,18 @@
         <v>CL-Food</v>
       </c>
       <c r="C37" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2306,7 +2306,7 @@
         <v>CL-Health</v>
       </c>
       <c r="C39" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <v>CL-Health</v>
       </c>
       <c r="C40" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>95</v>
@@ -2365,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2515,10 +2515,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2583,10 +2583,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2641,16 +2641,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2669,19 +2669,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -2725,209 +2725,209 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L5" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L9" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="K12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L12" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M12" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C018D5EC-E981-8D4E-8560-6CCE31F45EF8}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2954,7 +2954,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>88</v>
@@ -3024,508 +3024,508 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>394</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G9" t="s">
         <v>358</v>
-      </c>
-      <c r="G9" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>395</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G10" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G11" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G12" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G13" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G14" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G15" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G16" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G18" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G19" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G20" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G21" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G22" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G23" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G25" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G26" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3582,464 +3582,464 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.CONCAT(A3, " Name")</f>
         <v>P10-1 Name</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B26" si="0">_xlfn.CONCAT(A4, " Name")</f>
         <v>P10-2 Name</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>P10-3 Name</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>P11-1 Name</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>P11-2 Name</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>P11-3 Name</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>P12-1n2 Name</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>P12-1n2 Name</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>P12-3 Name</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>P13-1 Name</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F12" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>P13-2 Name</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F13" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>P13-3 Name</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>P13-4 Name</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>P13-4 Name</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>P20-a1 Name</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F18" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>P20-a2 Name</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>P30-a3 Name</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>P40-a4 Name</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F21" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>P40-a5 Name</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>P50-a6na7 Name</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>P100-a100 Name</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F25" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>P101-a101 Name</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F26" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4069,16 +4069,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>52</v>
@@ -4091,7 +4091,7 @@
         <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -4161,31 +4161,31 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
@@ -4193,31 +4193,31 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -4225,31 +4225,31 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
         <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>137</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H5" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="I5" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
@@ -4257,31 +4257,31 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I6" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
@@ -4289,31 +4289,31 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="I7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
@@ -4321,31 +4321,31 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" t="s">
         <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>140</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="H8" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I8" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
@@ -4353,31 +4353,31 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" t="s">
         <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H9" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I9" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
@@ -4385,31 +4385,31 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H10" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I10" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="J10" t="s">
         <v>49</v>
@@ -4417,31 +4417,31 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H11" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I11" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
@@ -4449,31 +4449,31 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H12" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="I12" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
@@ -4481,31 +4481,31 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H13" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I13" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="J13" t="s">
         <v>49</v>
@@ -4513,31 +4513,31 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H14" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="I14" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
@@ -4545,31 +4545,31 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H15" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I15" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
@@ -4577,31 +4577,31 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H16" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I16" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
@@ -4609,31 +4609,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H17" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I17" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
@@ -4641,204 +4641,204 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G19" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="J19" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G20" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="J20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G24" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4912,10 +4912,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -4924,10 +4924,10 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4935,10 +4935,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -4947,10 +4947,10 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4958,10 +4958,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -4970,10 +4970,10 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4981,10 +4981,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -4993,10 +4993,10 @@
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5004,10 +5004,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -5016,10 +5016,10 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5027,10 +5027,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -5039,10 +5039,10 @@
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5050,10 +5050,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -5062,10 +5062,10 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5073,10 +5073,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -5085,10 +5085,10 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5096,10 +5096,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D11">
         <v>55</v>
@@ -5108,10 +5108,10 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5119,10 +5119,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -5131,10 +5131,10 @@
         <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5142,10 +5142,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -5154,10 +5154,10 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5165,10 +5165,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -5177,10 +5177,10 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5188,10 +5188,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D15">
         <v>120</v>
@@ -5200,10 +5200,10 @@
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5211,10 +5211,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -5223,10 +5223,10 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5234,10 +5234,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -5246,10 +5246,10 @@
         <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5257,10 +5257,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -5269,10 +5269,10 @@
         <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5280,10 +5280,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -5292,21 +5292,21 @@
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -5315,21 +5315,21 @@
         <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -5338,21 +5338,21 @@
         <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -5361,10 +5361,10 @@
         <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mie008443/work/compass/csv2turtle/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21627B6E-64A4-DE43-A6C3-5A03593CDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D32C9-77F5-414C-A7D6-471E8E398B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="4" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20660" activeTab="1" xr2:uid="{A8202551-C63C-8A49-BB12-F636718BAEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="4" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>CL-Education</t>
   </si>
   <si>
-    <t>CL-Funding</t>
-  </si>
-  <si>
     <t>Funding label</t>
   </si>
   <si>
@@ -1251,6 +1248,9 @@
   </si>
   <si>
     <t>cids:hasCode INST-Youth, cids:hasCode INST-Male</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-Homeless-in_Area0, sh-Adult-Male-Homeless-in_Area1</t>
   </si>
 </sst>
 </file>
@@ -1715,13 +1715,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1731,75 +1731,75 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1809,59 +1809,59 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1869,68 +1869,68 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E49A9-2DA0-1E4E-8DC9-95F1075482B8}">
   <dimension ref="A2:C43"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1955,35 +1955,35 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1992,7 +1992,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
         <v>CL-Age</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2019,18 +2019,18 @@
         <v>CL-Age</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>CL-Gender</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2048,7 +2048,7 @@
         <v>CL-Gender</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2057,18 +2057,18 @@
         <v>CL-Gender</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2086,7 +2086,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2113,7 +2113,7 @@
         <v>CL-Housing_State</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2130,24 +2130,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,7 +2156,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,7 +2183,7 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2192,18 +2192,18 @@
         <v>CL-Shelter</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2230,7 +2230,7 @@
         <v>CL-Education</v>
       </c>
       <c r="C31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2239,18 +2239,18 @@
         <v>CL-Education</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,7 +2259,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2268,7 +2268,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,7 +2277,7 @@
         <v>CL-Food</v>
       </c>
       <c r="C36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2286,18 +2286,18 @@
         <v>CL-Food</v>
       </c>
       <c r="C37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2306,7 +2306,7 @@
         <v>CL-Health</v>
       </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <v>CL-Health</v>
       </c>
       <c r="C40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2345,19 +2345,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2365,254 +2365,254 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
         <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
         <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
         <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
         <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
         <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2641,16 +2641,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2669,265 +2669,265 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
         <v>186</v>
       </c>
-      <c r="D12" t="s">
+      <c r="J12" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K12" t="s">
-        <v>188</v>
-      </c>
       <c r="L12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C018D5EC-E981-8D4E-8560-6CCE31F45EF8}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2954,578 +2954,578 @@
   <sheetData>
     <row r="1" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="J1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
         <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" t="s">
         <v>194</v>
       </c>
-      <c r="B25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>195</v>
       </c>
-      <c r="E25" t="s">
-        <v>196</v>
-      </c>
       <c r="F25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" t="s">
         <v>194</v>
       </c>
-      <c r="B26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" t="s">
-        <v>195</v>
-      </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3555,7 +3555,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3565,481 +3565,481 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.CONCAT(A3, " Name")</f>
         <v>P10-1 Name</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B26" si="0">_xlfn.CONCAT(A4, " Name")</f>
         <v>P10-2 Name</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>P10-3 Name</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>P11-1 Name</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>P11-2 Name</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>P11-3 Name</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>P12-1n2 Name</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>P12-1n2 Name</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>P12-3 Name</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>P13-1 Name</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>P13-2 Name</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>P13-3 Name</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>P13-4 Name</v>
       </c>
       <c r="C15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>P13-4 Name</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>P20-a1 Name</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>P20-a2 Name</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>P30-a3 Name</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>P40-a4 Name</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>P40-a5 Name</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>P50-a6na7 Name</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>P100-a100 Name</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>P101-a101 Name</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4052,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A168A40-4F98-2D4B-9B19-5D3AF53C327F}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4069,47 +4069,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -4117,728 +4117,728 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="F16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="F17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="G27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4863,25 +4863,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4889,22 +4889,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4912,10 +4912,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -4924,10 +4924,10 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4935,10 +4935,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -4947,10 +4947,10 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4958,10 +4958,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -4970,10 +4970,10 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4981,10 +4981,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -4993,10 +4993,10 @@
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5004,10 +5004,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -5016,10 +5016,10 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5027,10 +5027,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -5039,10 +5039,10 @@
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5050,10 +5050,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -5062,10 +5062,10 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5073,10 +5073,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -5085,10 +5085,10 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5096,10 +5096,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11">
         <v>55</v>
@@ -5108,10 +5108,10 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5119,10 +5119,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -5131,10 +5131,10 @@
         <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5142,10 +5142,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -5154,10 +5154,10 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5165,10 +5165,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -5177,10 +5177,10 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5188,10 +5188,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15">
         <v>120</v>
@@ -5200,10 +5200,10 @@
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5211,10 +5211,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -5223,21 +5223,21 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -5246,21 +5246,21 @@
         <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -5269,21 +5269,21 @@
         <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -5292,21 +5292,21 @@
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -5315,21 +5315,21 @@
         <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -5338,21 +5338,21 @@
         <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -5361,10 +5361,10 @@
         <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="525">
   <si>
     <t>Stakeholder instances</t>
   </si>
@@ -30,12 +30,12 @@
     <t>Stakeholder</t>
   </si>
   <si>
+    <t>sh-Homeless-Female-Youth-in_Area0</t>
+  </si>
+  <si>
     <t>sh-Adult-Female-Homeless-in_Area0</t>
   </si>
   <si>
-    <t>sh-Homeless-Female-Youth-in_Area0</t>
-  </si>
-  <si>
     <t>sh-Funder-in_Area0</t>
   </si>
   <si>
@@ -45,12 +45,12 @@
     <t>sh-Adult-Male-Homeless-in_Area0</t>
   </si>
   <si>
+    <t>sh-Homeless-Female-Youth-in_Area1</t>
+  </si>
+  <si>
     <t>sh-Adult-Female-Homeless-in_Area1</t>
   </si>
   <si>
-    <t>sh-Homeless-Female-Youth-in_Area1</t>
-  </si>
-  <si>
     <t>sh-Homeless-in_Area1</t>
   </si>
   <si>
@@ -69,9 +69,36 @@
     <t>sh-Food-Health-in_Area1</t>
   </si>
   <si>
+    <t>sh-Female-Homeless-Youth-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Youth-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Adult-Homeless-in_Area1</t>
+  </si>
+  <si>
     <t>sh-Female-Youth-in_Area0</t>
   </si>
   <si>
+    <t>sh-Female-Youth-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Homeless-Male-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Female-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Male-Youth-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Adult-Female-in_Area0</t>
+  </si>
+  <si>
     <t>sh-Female-Housed-Youth-in_Area0</t>
   </si>
   <si>
@@ -141,12 +168,12 @@
     <t>hasCode</t>
   </si>
   <si>
+    <t>INST-Female,INST-Homeless,INST-Youth</t>
+  </si>
+  <si>
     <t>INST-Adult,INST-Female,INST-Homeless</t>
   </si>
   <si>
-    <t>INST-Female,INST-Homeless,INST-Youth</t>
-  </si>
-  <si>
     <t>INST-Funder</t>
   </si>
   <si>
@@ -168,9 +195,24 @@
     <t>INST-Food,INST-Health</t>
   </si>
   <si>
+    <t>INST-Youth</t>
+  </si>
+  <si>
+    <t>INST-Adult,INST-Homeless</t>
+  </si>
+  <si>
     <t>INST-Female,INST-Youth</t>
   </si>
   <si>
+    <t>INST-Adult,INST-Female</t>
+  </si>
+  <si>
+    <t>INST-Female</t>
+  </si>
+  <si>
+    <t>INST-Male,INST-Youth</t>
+  </si>
+  <si>
     <t>INST-Female,INST-Housed,INST-Youth</t>
   </si>
   <si>
@@ -219,9 +261,6 @@
     <t>INST-Male</t>
   </si>
   <si>
-    <t>INST-Female</t>
-  </si>
-  <si>
     <t>INST-Other</t>
   </si>
   <si>
@@ -489,9 +528,6 @@
     <t>INST-Age</t>
   </si>
   <si>
-    <t>INST-Youth</t>
-  </si>
-  <si>
     <t>INST-Adult</t>
   </si>
   <si>
@@ -1296,10 +1332,13 @@
     <t>hasBeneficialStakeholder</t>
   </si>
   <si>
-    <t>sh-Adult-Female-Homeless-in_Area0, sh-Homeless-Female-Youth-in_Area0, sh-Homeless-Female-Youth-in_Area0</t>
-  </si>
-  <si>
-    <t>sh-Food-Shelter-in_Area0, sh-Food-in_Area0</t>
+    <t>sh-Adult-Female-Homeless-in_Area1,sh-Adult-Homeless-Male-in_Area1</t>
+  </si>
+  <si>
+    <t>sh-Male-Youth-in_Area1,sh-Adult-Female-in_Area0</t>
+  </si>
+  <si>
+    <t>sh-Food-in_Area0,sh-Food-Health-in_Area1</t>
   </si>
   <si>
     <t>Instance label for the service</t>
@@ -1392,12 +1431,6 @@
     <t>Identifies the stakeholders that benefit from the Service.</t>
   </si>
   <si>
-    <t>sh-Adult-Female-Homeless-in_Area0, sh-Adult-Male-Homeless-in_Area1</t>
-  </si>
-  <si>
-    <t>sh-Homeless-Female-Youth-in_Area0, sh-Female-Youth-in_Area0</t>
-  </si>
-  <si>
     <t>Identifies characteristics that limit who can use the service, listed in Client taxonomy code list. Can be defined as a Code through hasCode</t>
   </si>
   <si>
@@ -1425,16 +1458,31 @@
     <t>cids:hasCode INST-Youth, cids:hasCode INST-Male</t>
   </si>
   <si>
+    <t>cids:hasCode INST-Adult, cids:hasCode INST-Female</t>
+  </si>
+  <si>
+    <t>community ares. used for generating hasBeneficialStakeholder automatially</t>
+  </si>
+  <si>
+    <t>requiredCommunity</t>
+  </si>
+  <si>
+    <t>Area0</t>
+  </si>
+  <si>
+    <t>Area1</t>
+  </si>
+  <si>
+    <t>Identifies client characteristics that the service focuses on, listed in Client, with (hasCode) taxonomy code list. Can be defined as a Code through hasCode.</t>
+  </si>
+  <si>
+    <t>hasFocus</t>
+  </si>
+  <si>
+    <t>cids:hasCode INST-Female,cids:hasCode INST-Youth</t>
+  </si>
+  <si>
     <t>cids:hasCode INST-Adult, cids:hasCode INST-Male</t>
-  </si>
-  <si>
-    <t>Identifies client characteristics that the service focuses on, listed in Client, with (hasCode) taxonomy code list. Can be defined as a Code through hasCode.</t>
-  </si>
-  <si>
-    <t>hasFocus</t>
-  </si>
-  <si>
-    <t>cids:hasCode INST-Female,cids:hasCode INST-Youth</t>
   </si>
   <si>
     <t>Characteristics of the community</t>
@@ -1922,7 +1970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1936,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1948,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1962,10 +2010,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1973,10 +2021,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1984,10 +2032,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1995,10 +2043,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2006,10 +2054,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2017,10 +2065,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2028,10 +2076,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2039,10 +2087,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2050,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2061,10 +2109,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2072,10 +2120,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2083,10 +2131,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2094,10 +2142,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2108,7 +2156,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2116,10 +2164,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2127,10 +2175,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2138,10 +2186,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2149,10 +2197,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2160,10 +2208,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2171,10 +2219,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2182,10 +2230,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2193,10 +2241,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2204,10 +2252,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2215,10 +2263,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2226,10 +2274,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2237,10 +2285,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2248,10 +2296,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2259,10 +2307,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2270,10 +2318,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2281,10 +2329,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2292,10 +2340,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2303,10 +2351,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2314,10 +2362,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2325,10 +2373,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2336,10 +2384,109 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
-        <v>69</v>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2381,641 +2528,641 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3041,328 +3188,328 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +3519,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3383,274 +3530,274 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>202</v>
       </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3671,16 +3818,16 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3699,265 +3846,265 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="L3" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M3" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="K5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="J6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="L6" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M6" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="L7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="M7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="J8" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="L8" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="J9" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K9" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="L9" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="J10" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="K10" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L10" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="M10" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="J12" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="K12" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L12" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="M12" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3978,578 +4125,578 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G4" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G5" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G8" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G9" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G12" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F13" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G13" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="E20" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D21" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D23" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E25" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D26" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E26" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F26" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4559,7 +4706,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4573,323 +4720,343 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D10" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E12" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F13" t="s">
-        <v>345</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C14" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D14" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C15" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D15" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="E16" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D18" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -4900,56 +5067,56 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C19" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C20" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C21" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -4960,82 +5127,62 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C22" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>434</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C23" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="E23" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>337</v>
-      </c>
-      <c r="B25" t="s">
-        <v>385</v>
-      </c>
-      <c r="C25" t="s">
-        <v>396</v>
-      </c>
-      <c r="D25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E25" t="s">
-        <v>422</v>
-      </c>
-      <c r="F25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>338</v>
-      </c>
-      <c r="B26" t="s">
-        <v>386</v>
-      </c>
-      <c r="C26" t="s">
-        <v>397</v>
-      </c>
-      <c r="D26" t="s">
-        <v>420</v>
-      </c>
-      <c r="E26" t="s">
-        <v>422</v>
-      </c>
-      <c r="F26" t="s">
-        <v>422</v>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" t="s">
+        <v>434</v>
+      </c>
+      <c r="F24" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5045,378 +5192,408 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="16" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>359</v>
+        <v>495</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>373</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="I3" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="J3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>471</v>
+      </c>
+      <c r="K3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="I4" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
       <c r="J4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>362</v>
+      </c>
+      <c r="K4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>456</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="I5" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="J5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>472</v>
+      </c>
+      <c r="K5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="I6" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="J6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>471</v>
+      </c>
+      <c r="K6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="I7" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
       <c r="J7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>422</v>
-      </c>
-      <c r="G8" t="s">
-        <v>457</v>
-      </c>
-      <c r="H8" t="s">
-        <v>462</v>
-      </c>
       <c r="I8" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="J8" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="K8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I9" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="J9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>485</v>
+      </c>
+      <c r="K9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="I10" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="J10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>474</v>
+      </c>
+      <c r="K10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -5425,407 +5602,477 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="I11" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="J11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>475</v>
+      </c>
+      <c r="K11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="I12" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="J12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>476</v>
+      </c>
+      <c r="K12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>367</v>
+      </c>
+      <c r="I13" t="s">
+        <v>482</v>
+      </c>
+      <c r="J13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
         <v>422</v>
       </c>
-      <c r="G13" t="s">
-        <v>344</v>
-      </c>
-      <c r="H13" t="s">
-        <v>355</v>
-      </c>
-      <c r="I13" t="s">
-        <v>355</v>
-      </c>
-      <c r="J13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>410</v>
-      </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G14" t="s">
-        <v>345</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="I14" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="J14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>368</v>
+      </c>
+      <c r="K14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F15" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="I15" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="J15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>477</v>
+      </c>
+      <c r="K15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="I16" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="J16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>477</v>
+      </c>
+      <c r="K16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="I17" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="J17" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>486</v>
+      </c>
+      <c r="K17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" t="s">
+        <v>434</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F19" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B20" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>466</v>
       </c>
       <c r="E20" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F20" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B21" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D21" t="s">
-        <v>453</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F21" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B22" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F22" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="J22" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B23" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D23" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G24" t="s">
-        <v>346</v>
-      </c>
-      <c r="J24" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D26" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D27" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>422</v>
-      </c>
-      <c r="J27" t="s">
-        <v>475</v>
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -5846,59 +6093,59 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -5907,21 +6154,21 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -5930,21 +6177,21 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -5953,21 +6200,21 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="G5" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -5976,21 +6223,21 @@
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -5999,21 +6246,21 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -6022,21 +6269,21 @@
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="G8" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -6045,21 +6292,21 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -6068,21 +6315,21 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="G10" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D11">
         <v>55</v>
@@ -6091,21 +6338,21 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G11" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -6114,21 +6361,21 @@
         <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -6137,21 +6384,21 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -6160,21 +6407,21 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G14" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D15">
         <v>120</v>
@@ -6183,21 +6430,21 @@
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -6206,21 +6453,21 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G16" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -6229,7 +6476,7 @@
         <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
@@ -6237,13 +6484,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -6252,7 +6499,7 @@
         <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -6260,13 +6507,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -6275,7 +6522,7 @@
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -6283,13 +6530,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -6298,7 +6545,7 @@
         <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -6306,13 +6553,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -6321,7 +6568,7 @@
         <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -6329,13 +6576,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -6344,10 +6591,10 @@
         <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="G23" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="523">
   <si>
     <t>Stakeholder instances</t>
   </si>
@@ -30,12 +30,12 @@
     <t>Stakeholder</t>
   </si>
   <si>
+    <t>sh-Adult-Female-Homeless-in_Area0</t>
+  </si>
+  <si>
     <t>sh-Homeless-Female-Youth-in_Area0</t>
   </si>
   <si>
-    <t>sh-Adult-Female-Homeless-in_Area0</t>
-  </si>
-  <si>
     <t>sh-Funder-in_Area0</t>
   </si>
   <si>
@@ -45,12 +45,12 @@
     <t>sh-Adult-Male-Homeless-in_Area0</t>
   </si>
   <si>
+    <t>sh-Adult-Female-Homeless-in_Area1</t>
+  </si>
+  <si>
     <t>sh-Homeless-Female-Youth-in_Area1</t>
   </si>
   <si>
-    <t>sh-Adult-Female-Homeless-in_Area1</t>
-  </si>
-  <si>
     <t>sh-Homeless-in_Area1</t>
   </si>
   <si>
@@ -81,12 +81,12 @@
     <t>sh-Female-Youth-in_Area0</t>
   </si>
   <si>
+    <t>sh-Adult-Female-in_Area1</t>
+  </si>
+  <si>
     <t>sh-Female-Youth-in_Area1</t>
   </si>
   <si>
-    <t>sh-Adult-Female-in_Area1</t>
-  </si>
-  <si>
     <t>sh-Adult-Homeless-Male-in_Area1</t>
   </si>
   <si>
@@ -168,12 +168,12 @@
     <t>hasCode</t>
   </si>
   <si>
+    <t>INST-Adult,INST-Female,INST-Homeless</t>
+  </si>
+  <si>
     <t>INST-Female,INST-Homeless,INST-Youth</t>
   </si>
   <si>
-    <t>INST-Adult,INST-Female,INST-Homeless</t>
-  </si>
-  <si>
     <t>INST-Funder</t>
   </si>
   <si>
@@ -1479,12 +1479,6 @@
     <t>hasFocus</t>
   </si>
   <si>
-    <t>cids:hasCode INST-Female,cids:hasCode INST-Youth</t>
-  </si>
-  <si>
-    <t>cids:hasCode INST-Adult, cids:hasCode INST-Male</t>
-  </si>
-  <si>
     <t>Characteristics of the community</t>
   </si>
   <si>
@@ -1527,31 +1521,31 @@
     <t>Funding</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a100</t>
-  </si>
-  <si>
-    <t>a101</t>
+    <t>a1-for-P20-a1</t>
+  </si>
+  <si>
+    <t>a2-for-P20-a2</t>
+  </si>
+  <si>
+    <t>a7-for-P50-a6na7</t>
+  </si>
+  <si>
+    <t>a3-for-P30-a3</t>
+  </si>
+  <si>
+    <t>a4-for-P40-a4</t>
+  </si>
+  <si>
+    <t>a5-for-P40-a5</t>
+  </si>
+  <si>
+    <t>a6-for-P50-a6na7</t>
+  </si>
+  <si>
+    <t>a100-for-P100-a100</t>
+  </si>
+  <si>
+    <t>a101-for-P101-a101</t>
   </si>
   <si>
     <t>links to organization providing the funds.</t>
@@ -2153,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -2197,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>83</v>
@@ -2208,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>83</v>
@@ -4210,7 +4204,7 @@
         <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>361</v>
@@ -4279,7 +4273,7 @@
         <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>362</v>
@@ -4302,7 +4296,7 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>364</v>
@@ -4371,7 +4365,7 @@
         <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>365</v>
@@ -4394,7 +4388,7 @@
         <v>338</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
         <v>366</v>
@@ -4463,7 +4457,7 @@
         <v>341</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>364</v>
@@ -4486,7 +4480,7 @@
         <v>342</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>364</v>
@@ -4509,7 +4503,7 @@
         <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
         <v>369</v>
@@ -4706,7 +4700,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4882,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4902,7 +4896,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5007,36 +5001,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E16" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>437</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -5047,56 +5041,56 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -5107,81 +5101,61 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>434</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E22" t="s">
         <v>434</v>
       </c>
       <c r="F22" t="s">
-        <v>438</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E23" t="s">
         <v>434</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>350</v>
-      </c>
-      <c r="B24" t="s">
-        <v>398</v>
-      </c>
-      <c r="C24" t="s">
-        <v>409</v>
-      </c>
-      <c r="D24" t="s">
-        <v>432</v>
-      </c>
-      <c r="E24" t="s">
-        <v>434</v>
-      </c>
-      <c r="F24" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5231,22 +5205,22 @@
         <v>483</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -5281,13 +5255,13 @@
         <v>484</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>371</v>
@@ -5331,7 +5305,7 @@
         <v>471</v>
       </c>
       <c r="K3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5366,7 +5340,7 @@
         <v>362</v>
       </c>
       <c r="K4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5401,7 +5375,7 @@
         <v>472</v>
       </c>
       <c r="K5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5436,7 +5410,7 @@
         <v>471</v>
       </c>
       <c r="K6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5471,7 +5445,7 @@
         <v>362</v>
       </c>
       <c r="K7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5506,7 +5480,7 @@
         <v>473</v>
       </c>
       <c r="K8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5529,7 +5503,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>473</v>
@@ -5538,10 +5512,10 @@
         <v>482</v>
       </c>
       <c r="J9" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="K9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5564,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>474</v>
@@ -5576,7 +5550,7 @@
         <v>474</v>
       </c>
       <c r="K10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5599,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
         <v>475</v>
@@ -5611,7 +5585,7 @@
         <v>475</v>
       </c>
       <c r="K11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5646,7 +5620,7 @@
         <v>476</v>
       </c>
       <c r="K12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5681,7 +5655,7 @@
         <v>367</v>
       </c>
       <c r="K13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5716,7 +5690,7 @@
         <v>368</v>
       </c>
       <c r="K14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5751,7 +5725,7 @@
         <v>477</v>
       </c>
       <c r="K15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5786,7 +5760,7 @@
         <v>477</v>
       </c>
       <c r="K16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5818,10 +5792,10 @@
         <v>481</v>
       </c>
       <c r="J17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5847,7 +5821,7 @@
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5873,7 +5847,7 @@
         <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5899,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5925,7 +5899,7 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5951,7 +5925,7 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5977,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6003,7 +5977,7 @@
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6026,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6049,7 +6023,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6072,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="K27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6093,53 +6067,53 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>229</v>
@@ -6157,12 +6131,12 @@
         <v>331</v>
       </c>
       <c r="G3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
         <v>229</v>
@@ -6180,12 +6154,12 @@
         <v>332</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
         <v>229</v>
@@ -6203,12 +6177,12 @@
         <v>333</v>
       </c>
       <c r="G5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
         <v>229</v>
@@ -6226,12 +6200,12 @@
         <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
         <v>229</v>
@@ -6249,12 +6223,12 @@
         <v>335</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s">
         <v>232</v>
@@ -6277,7 +6251,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s">
         <v>230</v>
@@ -6300,7 +6274,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
         <v>230</v>
@@ -6323,7 +6297,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
         <v>231</v>
@@ -6346,7 +6320,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B12" t="s">
         <v>231</v>
@@ -6364,12 +6338,12 @@
         <v>338</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B13" t="s">
         <v>232</v>
@@ -6392,7 +6366,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B14" t="s">
         <v>232</v>
@@ -6415,7 +6389,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B15" t="s">
         <v>232</v>
@@ -6433,12 +6407,12 @@
         <v>341</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B16" t="s">
         <v>232</v>
@@ -6456,12 +6430,12 @@
         <v>342</v>
       </c>
       <c r="G16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B18" t="s">
         <v>233</v>
@@ -6484,7 +6458,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B19" t="s">
         <v>233</v>
@@ -6507,7 +6481,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B20" t="s">
         <v>233</v>
@@ -6530,7 +6504,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B21" t="s">
         <v>233</v>
@@ -6553,7 +6527,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B22" t="s">
         <v>233</v>
@@ -6576,7 +6550,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B23" t="s">
         <v>233</v>

--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -30,12 +30,12 @@
     <t>Stakeholder</t>
   </si>
   <si>
+    <t>sh-Homeless-Female-Youth-in_Area0</t>
+  </si>
+  <si>
     <t>sh-Adult-Female-Homeless-in_Area0</t>
   </si>
   <si>
-    <t>sh-Homeless-Female-Youth-in_Area0</t>
-  </si>
-  <si>
     <t>sh-Funder-in_Area0</t>
   </si>
   <si>
@@ -45,12 +45,12 @@
     <t>sh-Adult-Male-Homeless-in_Area0</t>
   </si>
   <si>
+    <t>sh-Homeless-Female-Youth-in_Area1</t>
+  </si>
+  <si>
     <t>sh-Adult-Female-Homeless-in_Area1</t>
   </si>
   <si>
-    <t>sh-Homeless-Female-Youth-in_Area1</t>
-  </si>
-  <si>
     <t>sh-Homeless-in_Area1</t>
   </si>
   <si>
@@ -168,10 +168,10 @@
     <t>hasCode</t>
   </si>
   <si>
+    <t>INST-Female,INST-Homeless,INST-Youth</t>
+  </si>
+  <si>
     <t>INST-Adult,INST-Female,INST-Homeless</t>
-  </si>
-  <si>
-    <t>INST-Female,INST-Homeless,INST-Youth</t>
   </si>
   <si>
     <t>INST-Funder</t>
@@ -2147,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -4204,7 +4204,7 @@
         <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>361</v>
@@ -4273,7 +4273,7 @@
         <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>362</v>
@@ -4296,7 +4296,7 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>364</v>
@@ -4365,7 +4365,7 @@
         <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
         <v>365</v>
@@ -4388,7 +4388,7 @@
         <v>338</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
         <v>366</v>
@@ -4457,7 +4457,7 @@
         <v>341</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
         <v>364</v>
@@ -4480,7 +4480,7 @@
         <v>342</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>364</v>
@@ -4503,7 +4503,7 @@
         <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
         <v>369</v>
@@ -5573,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
         <v>475</v>
@@ -6154,7 +6154,7 @@
         <v>332</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6200,7 +6200,7 @@
         <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6223,7 +6223,7 @@
         <v>335</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6338,7 +6338,7 @@
         <v>338</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6407,7 +6407,7 @@
         <v>341</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">

--- a/csv/unit_tests3.xlsx
+++ b/csv/unit_tests3.xlsx
@@ -30,12 +30,12 @@
     <t>Stakeholder</t>
   </si>
   <si>
+    <t>sh-Adult-Female-Homeless-in_Area0</t>
+  </si>
+  <si>
     <t>sh-Homeless-Female-Youth-in_Area0</t>
   </si>
   <si>
-    <t>sh-Adult-Female-Homeless-in_Area0</t>
-  </si>
-  <si>
     <t>sh-Funder-in_Area0</t>
   </si>
   <si>
@@ -45,18 +45,18 @@
     <t>sh-Adult-Male-Homeless-in_Area0</t>
   </si>
   <si>
+    <t>sh-Adult-Female-Homeless-in_Area1</t>
+  </si>
+  <si>
     <t>sh-Homeless-Female-Youth-in_Area1</t>
   </si>
   <si>
-    <t>sh-Adult-Female-Homeless-in_Area1</t>
+    <t>sh-Adult-Male-Homeless-in_Area1</t>
   </si>
   <si>
     <t>sh-Homeless-in_Area1</t>
   </si>
   <si>
-    <t>sh-Adult-Male-Homeless-in_Area1</t>
-  </si>
-  <si>
     <t>sh-Food-Shelter-in_Area0</t>
   </si>
   <si>
@@ -81,12 +81,12 @@
     <t>sh-Female-Youth-in_Area0</t>
   </si>
   <si>
+    <t>sh-Female-Youth-in_Area1</t>
+  </si>
+  <si>
     <t>sh-Adult-Female-in_Area1</t>
   </si>
   <si>
-    <t>sh-Female-Youth-in_Area1</t>
-  </si>
-  <si>
     <t>sh-Adult-Homeless-Male-in_Area1</t>
   </si>
   <si>
@@ -168,10 +168,10 @@
     <t>hasCode</t>
   </si>
   <si>
+    <t>INST-Adult,INST-Female,INST-Homeless</t>
+  </si>
+  <si>
     <t>INST-Female,INST-Homeless,INST-Youth</t>
-  </si>
-  <si>
-    <t>INST-Adult,INST-Female,INST-Homeless</t>
   </si>
   <si>
     <t>INST-Funder</t>
@@ -2081,7 +2081,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -2147,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>83</v>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>83</v>
@@ -4204,7 +4204,7 @@
         <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>361</v>
@@ -4273,7 +4273,7 @@
         <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>362</v>
@@ -4296,7 +4296,7 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>364</v>
@@ -4365,7 +4365,7 @@
         <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>365</v>
@@ -4388,7 +4388,7 @@
         <v>338</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
         <v>366</v>
@@ -4457,7 +4457,7 @@
         <v>341</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>364</v>
@@ -4480,7 +4480,7 @@
         <v>342</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>364</v>
@@ -4503,7 +4503,7 @@
         <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
         <v>369</v>
@@ -4876,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4896,7 +4896,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4936,7 +4936,7 @@
         <v>434</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5503,7 +5503,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>473</v>
@@ -5538,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>474</v>
@@ -5573,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
         <v>475</v>
@@ -5643,7 +5643,7 @@
         <v>434</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>367</v>
@@ -6154,7 +6154,7 @@
         <v>332</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6200,7 +6200,7 @@
         <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6223,7 +6223,7 @@
         <v>335</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6338,7 +6338,7 @@
         <v>338</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6407,7 +6407,7 @@
         <v>341</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
